--- a/result_KR_20250530.xlsx
+++ b/result_KR_20250530.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>10.33</v>
+        <v>10.4</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>9.33</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.83</v>
+        <v>8.4</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -778,61 +778,65 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>402340.KS</t>
+          <t>003230.KS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SK Square Co., Ltd.</t>
+          <t>Samyang Foods Co., Ltd.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>114,800 (+1.41%)</t>
+          <t>1,111,000 (+0.91%)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.39</v>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>10.14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.13</v>
+        <v>30.47</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>39.17%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16.09%</t>
+          <t>17.1%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>223.13</v>
+        <v>23.92</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>17.37%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>40.51%</t>
+        </is>
+      </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>strong_buy(+7%)</t>
+          <t>strong_buy(+15%)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
@@ -840,61 +844,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>064350.KS</t>
+          <t>326030.KS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hyundai Rotem Company</t>
+          <t>SK Biopharmaceuticals Co., Ltd.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Railroads</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>146,400 (+0.69%)</t>
+          <t>93,000 (+1.53%)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="F7" t="n">
-        <v>1.29</v>
+        <v>1.84</v>
       </c>
       <c r="G7" t="n">
-        <v>7.81</v>
+        <v>13.33</v>
       </c>
       <c r="H7" t="n">
-        <v>39.27</v>
+        <v>30.25</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>26.4%</t>
+          <t>50.86%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7.43%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>27.47</v>
+        <v>9.02</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>45.85%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>strong_buy(+9%)</t>
+          <t>none(+48%)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -902,12 +906,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000660.KS</t>
+          <t>402340.KS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SK hynix Inc.</t>
+          <t>SK Square Co., Ltd.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -917,50 +921,46 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>204,500 (-3.54%)</t>
+          <t>114,800 (+1.41%)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
-        <v>7.12</v>
+        <v>4.13</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>37.95%</t>
+          <t>26.42%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>15.42%</t>
+          <t>16.09%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>17.44</v>
+        <v>223.13</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>strong_buy(+35%)</t>
+          <t>strong_buy(+7%)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -968,65 +968,61 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>005930.KS</t>
+          <t>064350.KS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>Hyundai Rotem Company</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Railroads</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>56,200 (+0.18%)</t>
+          <t>146,400 (+0.69%)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="F9" t="n">
-        <v>2.47</v>
+        <v>1.29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.97</v>
+        <v>7.81</v>
       </c>
       <c r="H9" t="n">
-        <v>11.35</v>
+        <v>39.27</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>26.4%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.15%</t>
+          <t>7.43%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>36.2</v>
+        <v>27.47</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-3.79%</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>13.16%</t>
-        </is>
-      </c>
+          <t>45.85%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>buy(+30%)</t>
+          <t>strong_buy(+9%)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1034,61 +1030,65 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>259960.KS</t>
+          <t>005930.KS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KRAFTON, Inc.</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Electronic Gaming &amp; Multimedia</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>369,000 (-2.25%)</t>
+          <t>56,200 (+0.18%)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F10" t="n">
-        <v>6.43</v>
+        <v>2.47</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>0.97</v>
       </c>
       <c r="H10" t="n">
-        <v>12.91</v>
+        <v>11.35</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20.21%</t>
+          <t>9.23%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>4.15%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>125.03</v>
+        <v>36.2</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-1.46%</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+          <t>-3.79%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>13.16%</t>
+        </is>
+      </c>
       <c r="N10" t="n">
         <v>7.5</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>buy(+31%)</t>
+          <t>buy(+30%)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
@@ -1096,65 +1096,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>003230.KS</t>
+          <t>090435.KS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Samyang Foods Co., Ltd.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1,111,000 (+0.91%)</t>
+          <t>44,100 (+3.89%)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
       <c r="F11" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="G11" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>30.47</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>39.17%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>17.1%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>23.92</v>
+        <v>7.82</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>17.37%</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>40.51%</t>
-        </is>
-      </c>
+          <t>32.17%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>strong_buy(+15%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
@@ -1162,61 +1158,61 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>267260.KS</t>
+          <t>090430.KS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HD Hyundai Electric Co., Ltd.</t>
+          <t>Amorepacific Corporation</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Electrical Equipment &amp; Parts</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>379,000 (-1.04%)</t>
+          <t>133,700 (-0.45%)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="F12" t="n">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>9.08</v>
+        <v>1.76</v>
       </c>
       <c r="H12" t="n">
-        <v>27.2</v>
+        <v>15.54</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>42.42%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12.88%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>22.61</v>
+        <v>7.82</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>32.17%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>7.17</v>
+        <v>7.3</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>buy(+16%)</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
@@ -1224,65 +1220,65 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>012330.KS</t>
+          <t>000660.KS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hyundai Mobis Co.,Ltd</t>
+          <t>SK hynix Inc.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Auto Parts</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>253,000 (-3.80%)</t>
+          <t>204,500 (-3.54%)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>1.66</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>5.63</v>
+        <v>7.12</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>9.6%</t>
+          <t>37.95%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>15.42%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>23.78</v>
+        <v>17.44</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>23.10%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>strong_buy(+30%)</t>
+          <t>strong_buy(+35%)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1290,61 +1286,65 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>326030.KS</t>
+          <t>033780.KS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SK Biopharmaceuticals Co., Ltd.</t>
+          <t>KT&amp;G Corporation</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93,000 (+1.53%)</t>
+          <t>120,200 (-0.66%)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="G14" t="n">
-        <v>13.33</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>30.25</v>
+        <v>10.62</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>50.86%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>9.02</v>
+        <v>28.25</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
+          <t>-4.22%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-9.89%</t>
+        </is>
+      </c>
       <c r="N14" t="n">
-        <v>6.83</v>
+        <v>7.1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>none(+48%)</t>
+          <t>strong_buy(+20%)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1352,65 +1352,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>005935.KS</t>
+          <t>259960.KS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>KRAFTON, Inc.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Electronic Gaming &amp; Multimedia</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>46,100 (-0.11%)</t>
+          <t>369,000 (-2.25%)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F15" t="n">
-        <v>2.47</v>
+        <v>6.43</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>12.91</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>20.21%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.15%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>36.2</v>
+        <v>125.03</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-3.79%</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>13.14%</t>
-        </is>
-      </c>
+          <t>-1.46%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>strong_buy(+38%)</t>
+          <t>buy(+31%)</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
@@ -1418,61 +1414,61 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>090435.KS</t>
+          <t>267260.KS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>HD Hyundai Electric Co., Ltd.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Electrical Equipment &amp; Parts</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>44,100 (+3.89%)</t>
+          <t>379,000 (-1.04%)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="F16" t="n">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.08</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>42.42%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>12.88%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>7.82</v>
+        <v>22.61</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>32.17%</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1480,61 +1476,65 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>090430.KS</t>
+          <t>005935.KS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amorepacific Corporation</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>133,700 (-0.45%)</t>
+          <t>46,100 (-0.11%)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F17" t="n">
-        <v>1.63</v>
+        <v>2.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>15.54</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>9.23%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>4.15%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>7.82</v>
+        <v>36.2</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>32.17%</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
+          <t>-3.79%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>13.14%</t>
+        </is>
+      </c>
       <c r="N17" t="n">
         <v>6.5</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>buy(+16%)</t>
+          <t>strong_buy(+38%)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1542,65 +1542,65 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>033780.KS</t>
+          <t>012330.KS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KT&amp;G Corporation</t>
+          <t>Hyundai Mobis Co.,Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Auto Parts</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>120,200 (-0.66%)</t>
+          <t>253,000 (-3.80%)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="F18" t="n">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>10.62</v>
+        <v>5.63</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12.49%</t>
+          <t>9.6%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.67%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>28.25</v>
+        <v>23.78</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-4.22%</t>
+          <t>23.10%</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-9.89%</t>
+          <t>2.54%</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.17</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>strong_buy(+20%)</t>
+          <t>strong_buy(+30%)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1674,61 +1674,61 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>000810.KS</t>
+          <t>196170.KQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>ALTEOGEN Inc.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Insurance - Property &amp; Casualty</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>404,500 (+1.25%)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>330,000 (-1.35%)</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.11</v>
+      </c>
       <c r="F20" t="n">
-        <v>1.45</v>
+        <v>11.58</v>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>64.28</v>
       </c>
       <c r="H20" t="n">
-        <v>8.289999999999999</v>
+        <v>281.57</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>34.69%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>9.35%</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>37.64</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>16.59%</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>13.52%</t>
-        </is>
-      </c>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>buy(+10%)</t>
+          <t>strong_buy(+71%)</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1736,65 +1736,61 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>005385.KS</t>
+          <t>000810.KS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Insurance - Property &amp; Casualty</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>147,900 (-1.27%)</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1.3</v>
-      </c>
+          <t>404,500 (+1.25%)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.79</v>
+        <v>1.45</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>31.54</v>
-      </c>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>70.14%</t>
+          <t>16.59%</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13.56%</t>
+          <t>13.52%</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+10%)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1802,65 +1798,61 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>005389.KS</t>
+          <t>021240.KS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>COWAY Co., Ltd.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Furnishings, Fixtures &amp; Appliances</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>147,500 (-1.54%)</t>
+          <t>88,900 (-2.31%)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.3</v>
+        <v>0.51</v>
       </c>
       <c r="F22" t="n">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>19.77%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>9.24%</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>31.54</v>
+        <v>12.68</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>70.14%</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>13.56%</t>
-        </is>
-      </c>
+          <t>3.86%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+15%)</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1868,59 +1860,61 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>024110.KS</t>
+          <t>207940.KS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Industrial Bank of Korea</t>
+          <t>Samsung Biologics Co.,Ltd.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15,740 (+0.64%)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+          <t>1,032,000 (+0.58%)</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.45</v>
+      </c>
       <c r="G23" t="n">
-        <v>0.37</v>
+        <v>6.74</v>
       </c>
       <c r="H23" t="n">
-        <v>5.07</v>
+        <v>67.8</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8.04%</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>5.84%</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>26.37</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12.46%</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>8.63%</t>
-        </is>
-      </c>
+          <t>35.23%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>hold(0%)</t>
+          <t>buy(+28%)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1928,61 +1922,61 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>272210.KS</t>
+          <t>009150.KS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hanwha Systems Co., Ltd.</t>
+          <t>Samsung Electro-Mechanics Co., Ltd.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45,400 (+0.00%)</t>
+          <t>122,200 (-1.45%)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="F24" t="n">
-        <v>0.83</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>3.41</v>
+        <v>1.05</v>
       </c>
       <c r="H24" t="n">
-        <v>18.74</v>
+        <v>13.6</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>16.14%</t>
+          <t>7.16%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>3.69%</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>9.83</v>
+        <v>10.11</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>39.34%</t>
+          <t>-8.52%</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>buy(-10%)</t>
+          <t>none(+43%)</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1990,57 +1984,65 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>443060.KS</t>
+          <t>005385.KS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HDHMS</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>179,800 (+0.06%)</t>
+          <t>147,900 (-1.27%)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.03</v>
+        <v>1.3</v>
       </c>
       <c r="F25" t="n">
-        <v>2.42</v>
+        <v>0.79</v>
       </c>
       <c r="G25" t="n">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>51.68%</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>11.69%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="K25" t="n">
-        <v>59.77</v>
+        <v>31.54</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>23.89%</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>70.14%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>13.56%</t>
+        </is>
+      </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>buy(+17%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -2048,61 +2050,65 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>021240.KS</t>
+          <t>005389.KS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COWAY Co., Ltd.</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Furnishings, Fixtures &amp; Appliances</t>
+          <t>Auto Manufacturers</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>88,900 (-2.31%)</t>
+          <t>147,500 (-1.54%)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.51</v>
+        <v>1.3</v>
       </c>
       <c r="F26" t="n">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>19.77%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>9.24%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>12.68</v>
+        <v>31.54</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>3.86%</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr"/>
+          <t>70.14%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>13.56%</t>
+        </is>
+      </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>buy(+15%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2164,7 +2170,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>5.33</v>
+        <v>4.9</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2176,61 +2182,65 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>009150.KS</t>
+          <t>030200.KS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Samsung Electro-Mechanics Co., Ltd.</t>
+          <t>KT Corporation</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>122,200 (-1.45%)</t>
+          <t>50,800 (-0.39%)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.23</v>
+        <v>0.67</v>
       </c>
       <c r="F28" t="n">
-        <v>1.82</v>
+        <v>1.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1.05</v>
+        <v>0.77</v>
       </c>
       <c r="H28" t="n">
-        <v>13.6</v>
+        <v>26.57</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3.69%</t>
+          <t>1.47%</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>10.11</v>
+        <v>73.66</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-8.52%</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
+          <t>-24.11%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>11.61%</t>
+        </is>
+      </c>
       <c r="N28" t="n">
-        <v>5.17</v>
+        <v>4.8</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>none(+43%)</t>
+          <t>none(+22%)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2238,61 +2248,59 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>02826K.KS</t>
+          <t>024110.KS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Samsung C&amp;T Corporation</t>
+          <t>Industrial Bank of Korea</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>111,400 (-2.62%)</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.39</v>
-      </c>
+          <t>15,740 (+0.64%)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.83%</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>13.75</v>
-      </c>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>21.22%</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+          <t>12.46%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>8.63%</t>
+        </is>
+      </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>hold(0%)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2300,61 +2308,57 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>000815.KS</t>
+          <t>443060.KS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>HDHMS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Insurance - Property &amp; Casualty</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>295,000 (+0.51%)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>179,800 (+0.06%)</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.03</v>
+      </c>
       <c r="F30" t="n">
-        <v>1.45</v>
+        <v>2.42</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12.51%</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>51.68%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>59.77</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>24.58%</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>13.52%</t>
-        </is>
-      </c>
+          <t>23.89%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+17%)</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2362,65 +2366,61 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>030200.KS</t>
+          <t>272210.KS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KT Corporation</t>
+          <t>Hanwha Systems Co., Ltd.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Telecom Services</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>50,800 (-0.39%)</t>
+          <t>45,400 (+0.00%)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="n">
-        <v>1.1</v>
+        <v>0.83</v>
       </c>
       <c r="G31" t="n">
-        <v>0.77</v>
+        <v>3.41</v>
       </c>
       <c r="H31" t="n">
-        <v>26.57</v>
+        <v>18.74</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>16.14%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>2.03%</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>73.66</v>
+        <v>9.83</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-24.11%</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>11.61%</t>
-        </is>
-      </c>
+          <t>39.34%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>none(+22%)</t>
+          <t>buy(-10%)</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2428,65 +2428,61 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>000720.KS</t>
+          <t>003555.KS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
+          <t>LG Corp.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>63,800 (-4.63%)</t>
+          <t>59,400 (-0.67%)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.34</v>
+        <v>0.02</v>
       </c>
       <c r="F32" t="n">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="G32" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-7.92%</t>
+          <t>3.68%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-3.18%</t>
+          <t>2.34%</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-12.47</v>
+        <v>35.81</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>44.38%</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1.84%</t>
-        </is>
-      </c>
+          <t>-30.05%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>strong_buy(-16%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -2494,61 +2490,61 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>018260.KS</t>
+          <t>009155.KS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Samsung SDS Co., Ltd.</t>
+          <t>Samsung Electro-Mechanics Co., Ltd.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Information Technology Services</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>130,200 (-2.03%)</t>
+          <t>55,800 (-0.36%)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="F33" t="n">
-        <v>3.49</v>
+        <v>1.82</v>
       </c>
       <c r="G33" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>8.42%</t>
+          <t>7.16%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.62%</t>
+          <t>3.69%</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>18.25</v>
+        <v>10.11</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>11.83%</t>
+          <t>-6.60%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>4.67</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>buy(+33%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -2556,29 +2552,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>003555.KS</t>
+          <t>02826K.KS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LG Corp.</t>
+          <t>Samsung C&amp;T Corporation</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Engineering &amp; Construction</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>59,400 (-0.67%)</t>
+          <t>111,400 (-2.62%)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F34" t="n">
-        <v>2.06</v>
+        <v>1.39</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2588,25 +2584,25 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.68%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>2.83%</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>35.81</v>
+        <v>13.75</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-30.05%</t>
+          <t>21.22%</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>4.67</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2618,12 +2614,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>005830.KS</t>
+          <t>000815.KS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DB Insurance Co., Ltd.</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2633,36 +2629,46 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>100,500 (-1.08%)</t>
+          <t>295,000 (+0.51%)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>1.45</v>
+      </c>
       <c r="G35" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>12.51%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>33.69%</t>
+          <t>24.58%</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13.84%</t>
+          <t>13.52%</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.67</v>
+        <v>4.3</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>strong_buy(+26%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
@@ -2670,61 +2676,65 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>012450.KS</t>
+          <t>000720.KS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hanwha Aerospace Co., Ltd.</t>
+          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Engineering &amp; Construction</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>811,000 (-5.37%)</t>
+          <t>63,800 (-4.63%)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.23</v>
+        <v>0.34</v>
       </c>
       <c r="F36" t="n">
-        <v>0.88</v>
+        <v>1.44</v>
       </c>
       <c r="G36" t="n">
-        <v>7.5</v>
+        <v>0.89</v>
       </c>
       <c r="H36" t="n">
-        <v>17.63</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>36.98%</t>
+          <t>-7.92%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>-3.18%</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>7.14</v>
+        <v>-12.47</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>90.81%</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+          <t>44.38%</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1.84%</t>
+        </is>
+      </c>
       <c r="N36" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>strong_buy(+19%)</t>
+          <t>strong_buy(-16%)</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2732,61 +2742,61 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>009540.KS</t>
+          <t>018260.KS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
+          <t>Samsung SDS Co., Ltd.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Information Technology Services</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>316,500 (+1.93%)</t>
+          <t>130,200 (-2.03%)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F37" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G37" t="n">
         <v>1.08</v>
       </c>
-      <c r="G37" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H37" t="n">
-        <v>19.09</v>
+        <v>13.3</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13.86%</t>
+          <t>8.42%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>3.68%</t>
+          <t>4.62%</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>6.96</v>
+        <v>18.25</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>11.83%</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>buy(+9%)</t>
+          <t>buy(+33%)</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
@@ -2794,61 +2804,51 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>079550.KS</t>
+          <t>005830.KS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LIG Nex1 Co., Ltd.</t>
+          <t>DB Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Insurance - Property &amp; Casualty</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>429,000 (-1.04%)</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.86</v>
-      </c>
+          <t>100,500 (-1.08%)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>7.72</v>
+        <v>0.65</v>
       </c>
       <c r="H38" t="n">
-        <v>42.17</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>20.42%</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>19.2</v>
-      </c>
+        <v>3.26</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>31.76%</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr"/>
+          <t>33.69%</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>13.84%</t>
+        </is>
+      </c>
       <c r="N38" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>strong_buy(0%)</t>
+          <t>strong_buy(+26%)</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -2856,61 +2856,61 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>196170.KQ</t>
+          <t>035420.KS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ALTEOGEN Inc.</t>
+          <t>NAVER Corporation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>330,000 (-1.35%)</t>
+          <t>187,500 (-0.95%)</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="F39" t="n">
-        <v>11.58</v>
+        <v>1.26</v>
       </c>
       <c r="G39" t="n">
-        <v>64.28</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
-        <v>281.57</v>
+        <v>14.76</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>34.69%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>37.64</v>
+        <v>18.87</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>-40.60%</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>strong_buy(+71%)</t>
+          <t>buy(+45%)</t>
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
@@ -2918,61 +2918,61 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>009155.KS</t>
+          <t>012450.KS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Samsung Electro-Mechanics Co., Ltd.</t>
+          <t>Hanwha Aerospace Co., Ltd.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>55,800 (-0.36%)</t>
+          <t>811,000 (-5.37%)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.23</v>
+        <v>1.23</v>
       </c>
       <c r="F40" t="n">
-        <v>1.82</v>
+        <v>0.88</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>17.63</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>36.98%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3.69%</t>
+          <t>4.16%</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>10.11</v>
+        <v>7.14</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-6.60%</t>
+          <t>90.81%</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>strong_buy(+19%)</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2980,61 +2980,61 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>010120.KS</t>
+          <t>009540.KS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LS ELECTRIC Co., Ltd.</t>
+          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Electrical Equipment &amp; Parts</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>252,500 (-0.98%)</t>
+          <t>316,500 (+1.93%)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.72</v>
+        <v>0.15</v>
       </c>
       <c r="F41" t="n">
-        <v>1.78</v>
+        <v>1.08</v>
       </c>
       <c r="G41" t="n">
-        <v>4.08</v>
+        <v>2.02</v>
       </c>
       <c r="H41" t="n">
-        <v>31.26</v>
+        <v>19.09</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>12.77%</t>
+          <t>13.86%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5.59%</t>
+          <t>3.68%</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>8.94</v>
+        <v>6.96</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>24.64%</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>buy(-1%)</t>
+          <t>buy(+9%)</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -3042,61 +3042,61 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>207940.KS</t>
+          <t>079550.KS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Samsung Biologics Co.,Ltd.</t>
+          <t>LIG Nex1 Co., Ltd.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1,032,000 (+0.58%)</t>
+          <t>429,000 (-1.04%)</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="F42" t="n">
-        <v>1.45</v>
+        <v>0.86</v>
       </c>
       <c r="G42" t="n">
-        <v>6.74</v>
+        <v>7.72</v>
       </c>
       <c r="H42" t="n">
-        <v>67.8</v>
+        <v>42.17</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>12.02%</t>
+          <t>20.42%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5.84%</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>26.37</v>
+        <v>19.2</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>35.23%</t>
+          <t>31.76%</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>4.17</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>buy(+28%)</t>
+          <t>strong_buy(0%)</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -3104,51 +3104,61 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>086790.KS</t>
+          <t>010120.KS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hana Financial Group Inc.</t>
+          <t>LS ELECTRIC Co., Ltd.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Electrical Equipment &amp; Parts</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>72,700 (+0.69%)</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+          <t>252,500 (-0.98%)</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.78</v>
+      </c>
       <c r="G43" t="n">
-        <v>0.48</v>
+        <v>4.08</v>
       </c>
       <c r="H43" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>31.26</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>12.77%</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>5.59%</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>8.94</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>6.46%</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>17.99%</t>
-        </is>
-      </c>
+          <t>24.64%</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>none(+12%)</t>
+          <t>buy(-1%)</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -3156,65 +3166,65 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>000725.KS</t>
+          <t>005490.KS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
+          <t>POSCO Holdings Inc.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>61,300 (-3.16%)</t>
+          <t>250,000 (-1.77%)</t>
         </is>
       </c>
       <c r="E44" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.34</v>
       </c>
-      <c r="F44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-7.92%</t>
+          <t>1.12%</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-3.18%</t>
+          <t>1.29%</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>-12.47</v>
+        <v>0.43</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>-38.45%</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.74%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+45%)</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -3222,61 +3232,61 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>035420.KS</t>
+          <t>015760.KS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NAVER Corporation</t>
+          <t>Korea Electric Power Corporation</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Internet Content &amp; Information</t>
+          <t>Utilities - Regulated Electric</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>187,500 (-0.95%)</t>
+          <t>30,350 (+2.71%)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.16</v>
+        <v>3.17</v>
       </c>
       <c r="F45" t="n">
-        <v>1.26</v>
+        <v>0.47</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>0.49</v>
       </c>
       <c r="H45" t="n">
-        <v>14.76</v>
+        <v>5.58</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>13.27%</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.77%</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>18.87</v>
+        <v>1.76</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-40.60%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>3.83</v>
+        <v>3.4</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>buy(+45%)</t>
+          <t>strong_buy(+4%)</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -3284,61 +3294,51 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>003490.KS</t>
+          <t>086790.KS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Korean Airlines Co.,Ltd.</t>
+          <t>Hana Financial Group Inc.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Airlines</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22,500 (-1.75%)</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+          <t>72,700 (+0.69%)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="H46" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>12.62%</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>4.1</v>
-      </c>
+        <v>5.76</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>21.03%</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
+          <t>6.46%</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>17.99%</t>
+        </is>
+      </c>
       <c r="N46" t="n">
-        <v>3.83</v>
+        <v>3.4</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>none(+39%)</t>
+          <t>none(+12%)</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3346,59 +3346,61 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>105560.KS</t>
+          <t>003490.KS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KB Financial Group Inc.</t>
+          <t>Korean Airlines Co.,Ltd.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Airlines</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>104,300 (+1.56%)</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+          <t>22,500 (-1.75%)</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="G47" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="H47" t="n">
-        <v>8.1</v>
+        <v>6.31</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>12.62%</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.75%</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>4.1</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>3.97%</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>14.81%</t>
-        </is>
-      </c>
+          <t>21.03%</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>strong_buy(+9%)</t>
+          <t>none(+39%)</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -3406,65 +3408,65 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>005490.KS</t>
+          <t>000725.KS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>POSCO Holdings Inc.</t>
+          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Engineering &amp; Construction</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>250,000 (-1.77%)</t>
+          <t>61,300 (-3.16%)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="F48" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="G48" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>-7.92%</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>-3.18%</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.43</v>
+        <v>-12.47</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-38.45%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>1.74%</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>buy(+45%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3472,61 +3474,59 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>047810.KS</t>
+          <t>105560.KS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Korea Aerospace Industries, Ltd.</t>
+          <t>KB Financial Group Inc.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>83,600 (-0.71%)</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1.19</v>
-      </c>
+          <t>104,300 (+1.56%)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>4.78</v>
+        <v>0.67</v>
       </c>
       <c r="H49" t="n">
-        <v>47.37</v>
+        <v>8.1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9.95%</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1.88%</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>7.21</v>
-      </c>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>31.61%</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+          <t>3.97%</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>14.81%</t>
+        </is>
+      </c>
       <c r="N49" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>none(+13%)</t>
+          <t>strong_buy(+9%)</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3534,63 +3534,61 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>006800.KS</t>
+          <t>003550.KS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mirae Asset Securities Co., Ltd.</t>
+          <t>LG Corp.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15,550 (-6.10%)</t>
+          <t>71,000 (-4.57%)</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.06</v>
+        <v>0.02</v>
       </c>
       <c r="F50" t="n">
-        <v>1.33</v>
+        <v>2.06</v>
       </c>
       <c r="G50" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
-        <v>10.06</v>
+        <v>19.13</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>8.58%</t>
+          <t>3.68%</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.75%</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>2.34%</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>35.81</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-3.34%</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>-4.98%</t>
-        </is>
-      </c>
+          <t>-30.05%</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>strong_buy(-15%)</t>
+          <t>buy(+21%)</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3598,55 +3596,65 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>071050.KS</t>
+          <t>066570.KS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Korea Investment Holdings Co., Ltd.</t>
+          <t>LG Electronics Inc.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>108,000 (-0.28%)</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+          <t>71,100 (-1.52%)</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.3</v>
+      </c>
       <c r="G51" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="H51" t="n">
-        <v>6.07</v>
+        <v>34.92</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>12.34%</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>3.28%</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>5.99</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-4.88%</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
+          <t>-22.44%</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="N51" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>strong_buy(+5%)</t>
+          <t>buy(+45%)</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3654,61 +3662,61 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>003550.KS</t>
+          <t>000105.KS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LG Corp.</t>
+          <t>Yuhan Corporation</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>71,000 (-4.57%)</t>
+          <t>98,900 (+0.82%)</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="F52" t="n">
         <v>2.06</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>19.13</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.68%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>1.31%</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>35.81</v>
+        <v>3.73</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-30.05%</t>
+          <t>-8.70%</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>buy(+21%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3716,65 +3724,61 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>066570.KS</t>
+          <t>047810.KS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LG Electronics Inc.</t>
+          <t>Korea Aerospace Industries, Ltd.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>71,100 (-1.52%)</t>
+          <t>83,600 (-0.71%)</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.58</v>
+        <v>0.74</v>
       </c>
       <c r="F53" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="G53" t="n">
-        <v>0.61</v>
+        <v>4.78</v>
       </c>
       <c r="H53" t="n">
-        <v>34.92</v>
+        <v>47.37</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4.56%</t>
+          <t>9.95%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3.28%</t>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>5.99</v>
+        <v>7.21</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-22.44%</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+          <t>31.61%</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>buy(+45%)</t>
+          <t>none(+13%)</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3782,61 +3786,63 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>003495.KS</t>
+          <t>006800.KS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Korean Airlines Co.,Ltd.</t>
+          <t>Mirae Asset Securities Co., Ltd.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Airlines</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22,800 (-1.30%)</t>
+          <t>15,550 (-6.10%)</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.81</v>
+        <v>7.06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>10.06</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>12.62%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>4.1</v>
-      </c>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>21.03%</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr"/>
+          <t>-3.34%</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>-4.98%</t>
+        </is>
+      </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>strong_buy(-15%)</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -3844,61 +3850,55 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>000105.KS</t>
+          <t>071050.KS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Yuhan Corporation</t>
+          <t>Korea Investment Holdings Co., Ltd.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>98,900 (+0.82%)</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2.06</v>
-      </c>
+          <t>108,000 (-0.28%)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>6.07</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>12.34%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1.31%</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>3.73</v>
-      </c>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-8.70%</t>
+          <t>-4.88%</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>strong_buy(+5%)</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -3906,55 +3906,65 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>138040.KS</t>
+          <t>017670.KS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Meritz Financial Group Inc.</t>
+          <t>SK Telecom Co., Ltd.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Asset Management</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>111,700 (-2.02%)</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+          <t>51,500 (+0.39%)</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.87</v>
+      </c>
       <c r="G56" t="n">
-        <v>1.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>9.109999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>22.19%</t>
+          <t>11.37%</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2.14%</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>3.81%</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>4.55</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>32.39%</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>-5.36%</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>-2.76%</t>
+        </is>
+      </c>
       <c r="N56" t="n">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>buy(+20%)</t>
+          <t>buy(+24%)</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3962,52 +3972,52 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>329180.KS</t>
+          <t>003495.KS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HD Hyundai Heavy Industries Co.,Ltd.</t>
+          <t>Korean Airlines Co.,Ltd.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Airlines</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>405,500 (+0.00%)</t>
+          <t>22,800 (-1.30%)</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.19</v>
+        <v>1.81</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>6.31</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>57.92</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>15.9%</t>
+          <t>12.62%</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>21.03%</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
@@ -4016,7 +4026,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>buy(+8%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -4024,61 +4034,55 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>015760.KS</t>
+          <t>138040.KS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Korea Electric Power Corporation</t>
+          <t>Meritz Financial Group Inc.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Utilities - Regulated Electric</t>
+          <t>Asset Management</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>30,350 (+2.71%)</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.47</v>
-      </c>
+          <t>111,700 (-2.02%)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>0.49</v>
+        <v>1.99</v>
       </c>
       <c r="H58" t="n">
-        <v>5.58</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>13.27%</t>
+          <t>22.19%</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2.77%</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>1.76</v>
-      </c>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>32.39%</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>strong_buy(+4%)</t>
+          <t>buy(+20%)</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -4086,55 +4090,65 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>316140.KS</t>
+          <t>066575.KS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Woori Financial Group Inc.</t>
+          <t>LG Electronics Inc.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>19,270 (+0.10%)</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+          <t>36,450 (+0.69%)</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.3</v>
+      </c>
       <c r="G59" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>4.88</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>8.6%</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>3.28%</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>5.99</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>3.21%</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr"/>
+          <t>-22.78%</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
       <c r="N59" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>none(+5%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -4142,61 +4156,61 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>18064K.KS</t>
+          <t>068270.KS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hanjin Kal</t>
+          <t>Celltrion, Inc.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lodging</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>47,300 (-1.77%)</t>
+          <t>161,000 (+1.45%)</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="F60" t="n">
-        <v>0.71</v>
+        <v>1.6</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>82.31</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>15.04%</t>
+          <t>2.95%</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>0.71</v>
+        <v>6.51</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>1.33%</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+40%)</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -4204,48 +4218,48 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>180640.KS</t>
+          <t>329180.KS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hanjin Kal</t>
+          <t>HD Hyundai Heavy Industries Co.,Ltd.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lodging</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>141,300 (-5.80%)</t>
+          <t>405,500 (+0.00%)</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F61" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="G61" t="n">
-        <v>2.96</v>
+        <v>6.31</v>
       </c>
       <c r="H61" t="n">
-        <v>19.01</v>
+        <v>57.92</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>15.04%</t>
+          <t>15.9%</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0.71</v>
+        <v>4.7</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4254,11 +4268,11 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+8%)</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -4266,65 +4280,55 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>017670.KS</t>
+          <t>316140.KS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SK Telecom Co., Ltd.</t>
+          <t>Woori Financial Group Inc.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Telecom Services</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>51,500 (+0.39%)</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.87</v>
-      </c>
+          <t>19,270 (+0.10%)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="H62" t="n">
-        <v>8.91</v>
+        <v>4.88</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>11.37%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3.81%</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>4.55</v>
-      </c>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-5.36%</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>-2.76%</t>
-        </is>
-      </c>
+          <t>3.21%</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>buy(+24%)</t>
+          <t>none(+5%)</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -4332,48 +4336,48 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>267250.KS</t>
+          <t>18064K.KS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HD Hyundai Co., Ltd.</t>
+          <t>Hanjin Kal</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+          <t>Lodging</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>111,700 (+2.76%)</t>
+          <t>47,300 (-1.77%)</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.66</v>
+        <v>0.21</v>
       </c>
       <c r="F63" t="n">
-        <v>1.12</v>
+        <v>0.71</v>
       </c>
       <c r="G63" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>15.51</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>8.73%</t>
+          <t>15.04%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2.92%</t>
+          <t>0.67%</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>3.07</v>
+        <v>0.71</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4382,11 +4386,11 @@
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>strong_buy(-5%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -4394,55 +4398,57 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>00680K.KS</t>
+          <t>180640.KS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mirae Asset Securities Co., Ltd.</t>
+          <t>Hanjin Kal</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Lodging</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5,760 (-4.00%)</t>
+          <t>141,300 (-5.80%)</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>7.06</v>
+        <v>0.21</v>
       </c>
       <c r="F64" t="n">
-        <v>1.33</v>
+        <v>0.71</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>19.01</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>8.58%</t>
+          <t>15.04%</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.75%</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0.71</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>-3.34%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -4454,63 +4460,61 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>006805.KS</t>
+          <t>267250.KS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mirae Asset Securities Co., Ltd.</t>
+          <t>HD Hyundai Co., Ltd.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6,330 (-3.36%)</t>
+          <t>111,700 (+2.76%)</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.06</v>
+        <v>0.66</v>
       </c>
       <c r="F65" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>15.51</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>8.58%</t>
+          <t>8.73%</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.75%</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>2.92%</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>3.07</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>-3.34%</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>-4.98%</t>
-        </is>
-      </c>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>strong_buy(-5%)</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -4518,59 +4522,59 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>055550.KS</t>
+          <t>00680K.KS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Shinhan Financial Group Co., Ltd.</t>
+          <t>Mirae Asset Securities Co., Ltd.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Banks - Regional</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>58,100 (+1.04%)</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+          <t>5,760 (-4.00%)</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.33</v>
+      </c>
       <c r="G66" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>8.14%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.65%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>3.67%</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>5.98%</t>
-        </is>
-      </c>
+          <t>-3.34%</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>2.17</v>
+        <v>1.9</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>buy(+19%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -4578,29 +4582,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>066575.KS</t>
+          <t>006805.KS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LG Electronics Inc.</t>
+          <t>Mirae Asset Securities Co., Ltd.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>36,450 (+0.69%)</t>
+          <t>6,330 (-3.36%)</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.58</v>
+        <v>7.06</v>
       </c>
       <c r="F67" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -4610,29 +4614,27 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4.56%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>3.28%</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>5.99</v>
-      </c>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>-22.78%</t>
+          <t>-3.34%</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>-4.98%</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4644,57 +4646,55 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>028260.KS</t>
+          <t>055550.KS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Samsung C&amp;T Corporation</t>
+          <t>Shinhan Financial Group Co., Ltd.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Engineering &amp; Construction</t>
+          <t>Banks - Regional</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>149,800 (-3.04%)</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.39</v>
-      </c>
+          <t>58,100 (+1.04%)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="H68" t="n">
-        <v>10.99</v>
+        <v>6.88</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>8.14%</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2.83%</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>13.75</v>
-      </c>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>8.28%</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr"/>
+          <t>3.67%</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>5.98%</t>
+        </is>
+      </c>
       <c r="N68" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -4706,48 +4706,48 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>042660.KS</t>
+          <t>028300.KQ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hanwha Ocean Co., Ltd.</t>
+          <t>HLB Co., Ltd.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>78,000 (-0.13%)</t>
+          <t>54,600 (-0.18%)</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.11</v>
+        <v>0.27</v>
       </c>
       <c r="F69" t="n">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="G69" t="n">
-        <v>4.92</v>
+        <v>12.42</v>
       </c>
       <c r="H69" t="n">
-        <v>47.33</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>14.66%</t>
+          <t>-32.99%</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1.68%</t>
+          <t>-8.23%</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>1.39</v>
+        <v>-11.04</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4756,11 +4756,11 @@
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>buy(+1%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -4768,65 +4768,61 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>047050.KS</t>
+          <t>352820.KS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Posco International Corporation</t>
+          <t>HYBE Co., Ltd.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Conglomerates</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>49,050 (-1.80%)</t>
+          <t>266,000 (-2.21%)</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F70" t="n">
-        <v>1.23</v>
+        <v>2.18</v>
       </c>
       <c r="G70" t="n">
-        <v>1.28</v>
+        <v>3.44</v>
       </c>
       <c r="H70" t="n">
-        <v>16.25</v>
+        <v>1182.22</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>1.18%</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>2.21%</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>3.84</v>
+        <v>3.73</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>19.46%</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>7.18%</t>
-        </is>
-      </c>
+          <t>12.70%</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>none(+26%)</t>
+          <t>buy(+11%)</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -4834,61 +4830,65 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>352820.KS</t>
+          <t>047050.KS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HYBE Co., Ltd.</t>
+          <t>Posco International Corporation</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Conglomerates</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>266,000 (-2.21%)</t>
+          <t>49,050 (-1.80%)</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.3</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>2.18</v>
+        <v>1.23</v>
       </c>
       <c r="G71" t="n">
-        <v>3.44</v>
+        <v>1.28</v>
       </c>
       <c r="H71" t="n">
-        <v>1182.22</v>
+        <v>16.25</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1.18%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2.21%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>3.73</v>
+        <v>3.84</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>12.70%</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr"/>
+          <t>19.46%</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>7.18%</t>
+        </is>
+      </c>
       <c r="N71" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>buy(+11%)</t>
+          <t>none(+26%)</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -4896,59 +4896,61 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>032830.KS</t>
+          <t>028260.KS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Samsung Life Insurance Co., Ltd.</t>
+          <t>Samsung C&amp;T Corporation</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Insurance - Life</t>
+          <t>Engineering &amp; Construction</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>98,900 (-0.50%)</t>
+          <t>149,800 (-3.04%)</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.73</v>
+        <v>0.11</v>
       </c>
       <c r="F72" t="n">
-        <v>42.66</v>
+        <v>1.39</v>
       </c>
       <c r="G72" t="n">
-        <v>0.58</v>
+        <v>0.79</v>
       </c>
       <c r="H72" t="n">
-        <v>8.43</v>
+        <v>10.99</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>5.87%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.32%</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
+          <t>2.83%</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>13.75</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>10.62%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>1.17</v>
+        <v>0.9</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>buy(+12%)</t>
+          <t>buy(+19%)</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -4956,61 +4958,61 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>000157.KS</t>
+          <t>042660.KS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Doosan Corporation</t>
+          <t>Hanwha Ocean Co., Ltd.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Conglomerates</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>355,000 (-5.08%)</t>
+          <t>78,000 (-0.13%)</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.8</v>
+        <v>1.11</v>
       </c>
       <c r="F73" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>47.33</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>14.66%</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.72%</t>
+          <t>1.68%</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>-7.61%</t>
-        </is>
-      </c>
+        <v>1.39</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+1%)</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
@@ -5018,65 +5020,61 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>000155.KS</t>
+          <t>000100.KS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Doosan Corporation</t>
+          <t>Yuhan Corporation</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Conglomerates</t>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>327,500 (-5.35%)</t>
+          <t>104,300 (-1.04%)</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="F74" t="n">
-        <v>1.07</v>
+        <v>2.06</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>110.6</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1.72%</t>
+          <t>1.31%</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>2.04</v>
+        <v>3.73</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>-7.50%</t>
-        </is>
-      </c>
+          <t>-8.70%</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+37%)</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
@@ -5084,61 +5082,59 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>068270.KS</t>
+          <t>032830.KS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Celltrion, Inc.</t>
+          <t>Samsung Life Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Insurance - Life</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>161,000 (+1.45%)</t>
+          <t>98,900 (-0.50%)</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.13</v>
+        <v>0.73</v>
       </c>
       <c r="F75" t="n">
-        <v>1.6</v>
+        <v>42.66</v>
       </c>
       <c r="G75" t="n">
-        <v>1.98</v>
+        <v>0.58</v>
       </c>
       <c r="H75" t="n">
-        <v>82.31</v>
+        <v>8.43</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.95%</t>
+          <t>5.87%</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>6.51</v>
-      </c>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>10.62%</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>buy(+40%)</t>
+          <t>buy(+12%)</t>
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
@@ -5146,7 +5142,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>000150.KS</t>
+          <t>000157.KS</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5161,7 +5157,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>488,000 (-4.31%)</t>
+          <t>355,000 (-5.08%)</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -5171,7 +5167,7 @@
         <v>1.07</v>
       </c>
       <c r="G76" t="n">
-        <v>5.87</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5189,22 +5185,18 @@
       <c r="K76" t="n">
         <v>2.04</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>-7.61%</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>strong_buy(+4%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
@@ -5212,61 +5204,65 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>000100.KS</t>
+          <t>000155.KS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Yuhan Corporation</t>
+          <t>Doosan Corporation</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+          <t>Conglomerates</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>104,300 (-1.04%)</t>
+          <t>327,500 (-5.35%)</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="F77" t="n">
-        <v>2.06</v>
+        <v>1.07</v>
       </c>
       <c r="G77" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>110.6</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>1.72%</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>3.73</v>
+        <v>2.04</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>-8.70%</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr"/>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>-7.50%</t>
+        </is>
+      </c>
       <c r="N77" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>buy(+37%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P77" t="inlineStr"/>
@@ -5274,61 +5270,65 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>028300.KQ</t>
+          <t>035720.KS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HLB Co., Ltd.</t>
+          <t>Kakao Corp.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>54,600 (-0.18%)</t>
+          <t>42,700 (-2.95%)</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F78" t="n">
-        <v>0.67</v>
+        <v>1.62</v>
       </c>
       <c r="G78" t="n">
-        <v>12.42</v>
+        <v>1.85</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>338.89</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-32.99%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-8.23%</t>
+          <t>1.05%</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>-11.04</v>
+        <v>2.26</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>5.83%</t>
+        </is>
+      </c>
       <c r="N78" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+10%)</t>
         </is>
       </c>
       <c r="P78" t="inlineStr"/>
@@ -5336,78 +5336,58 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>035720.KS</t>
+          <t>048260.KQ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kakao Corp.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Internet Content &amp; Information</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>42,700 (-2.95%)</t>
-        </is>
-      </c>
+          <t>048260.KQ</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>338.89</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>5.83%</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>buy(+10%)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>048260.KQ</t>
+          <t>091990.KQ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>048260.KQ</t>
+          <t>091990.KQ</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -5494,12 +5474,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>091990.KQ</t>
+          <t>010145.KS</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>091990.KQ</t>
+          <t>010145.KS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -5540,107 +5520,127 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>010145.KS</t>
+          <t>000150.KS</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>010145.KS</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+          <t>Doosan Corporation</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>488,000 (-4.31%)</t>
+        </is>
+      </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.72%</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+        <v>2.04</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>-7.61%</t>
+        </is>
+      </c>
       <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>strong_buy(+4%)</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>010140.KS</t>
+          <t>010130.KS</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Samsung Heavy Industries Co., Ltd.</t>
+          <t>Korea Zinc Company, Ltd.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Other Industrial Metals &amp; Mining</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>16,900 (+4.71%)</t>
+          <t>731,000 (-2.53%)</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F84" t="n">
-        <v>0.77</v>
+        <v>1.14</v>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>1.81</v>
       </c>
       <c r="H84" t="n">
-        <v>225.33</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>2.83%</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="K84" t="n">
-        <v>2.36</v>
+        <v>6.14</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>-5.24%</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>buy(+10%)</t>
+          <t>none(-14%)</t>
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
@@ -5648,61 +5648,61 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>010130.KS</t>
+          <t>006400.KS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Korea Zinc Company, Ltd.</t>
+          <t>Samsung SDI Co., Ltd.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Other Industrial Metals &amp; Mining</t>
+          <t>Electrical Equipment &amp; Parts</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>731,000 (-2.53%)</t>
+          <t>168,900 (-3.15%)</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="F85" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="G85" t="n">
-        <v>1.81</v>
+        <v>0.58</v>
       </c>
       <c r="H85" t="n">
-        <v>77.04000000000001</v>
+        <v>19.25</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.83%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>3.85%</t>
+          <t>-0.78%</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>6.14</v>
+        <v>1.08</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>-5.24%</t>
+          <t>-15.40%</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>none(-14%)</t>
+          <t>buy(+45%)</t>
         </is>
       </c>
       <c r="P85" t="inlineStr"/>
@@ -5710,61 +5710,61 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>006400.KS</t>
+          <t>010140.KS</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Samsung SDI Co., Ltd.</t>
+          <t>Samsung Heavy Industries Co., Ltd.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Electrical Equipment &amp; Parts</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>168,900 (-3.15%)</t>
+          <t>16,900 (+4.71%)</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="F86" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="G86" t="n">
-        <v>0.58</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
-        <v>19.25</v>
+        <v>225.33</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>3.64%</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>1.08</v>
+        <v>2.36</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>-15.40%</t>
+          <t>true</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>buy(+45%)</t>
+          <t>buy(+10%)</t>
         </is>
       </c>
       <c r="P86" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>-0.83</v>
+        <v>-1.4</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5956,48 +5956,48 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>034020.KS</t>
+          <t>051910.KS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Doosan Enerbility Co., Ltd.</t>
+          <t>LG Chem, Ltd.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Specialty Industrial Machinery</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>40,350 (-4.38%)</t>
+          <t>197,300 (-1.00%)</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="F90" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="G90" t="n">
-        <v>3.45</v>
+        <v>0.46</v>
       </c>
       <c r="H90" t="n">
-        <v>231.9</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>1.85%</t>
+          <t>0.59%</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>3.09</v>
+        <v>0.96</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -6006,11 +6006,11 @@
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>strong_buy(+4%)</t>
+          <t>strong_buy(+60%)</t>
         </is>
       </c>
       <c r="P90" t="inlineStr"/>
@@ -6018,61 +6018,61 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>051910.KS</t>
+          <t>006405.KS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LG Chem, Ltd.</t>
+          <t>Samsung SDI Co., Ltd.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Electrical Equipment &amp; Parts</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>197,300 (-1.00%)</t>
+          <t>103,100 (-0.39%)</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="F91" t="n">
-        <v>1.29</v>
+        <v>0.92</v>
       </c>
       <c r="G91" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>-0.78%</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>-15.40%</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>strong_buy(+60%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
@@ -6080,61 +6080,61 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>006405.KS</t>
+          <t>096770.KS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Samsung SDI Co., Ltd.</t>
+          <t>SK Innovation Co., Ltd.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Electrical Equipment &amp; Parts</t>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>103,100 (-0.39%)</t>
+          <t>89,500 (-0.33%)</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.55</v>
+        <v>1.42</v>
       </c>
       <c r="F92" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>-7.08%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>-0.49%</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>1.08</v>
+        <v>0.21</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>-15.40%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>buy(+41%)</t>
         </is>
       </c>
       <c r="P92" t="inlineStr"/>
@@ -6142,61 +6142,61 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>096770.KS</t>
+          <t>003670.KS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SK Innovation Co., Ltd.</t>
+          <t>Posco Future M Co., Ltd.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+          <t>Electrical Equipment &amp; Parts</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>89,500 (-0.33%)</t>
+          <t>116,600 (+2.82%)</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.99</v>
+        <v>1.18</v>
       </c>
       <c r="G93" t="n">
-        <v>0.54</v>
+        <v>3.04</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-7.08%</t>
+          <t>-7.87%</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>-0.17%</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>-6.48%</t>
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>buy(+41%)</t>
+          <t>hold(+13%)</t>
         </is>
       </c>
       <c r="P93" t="inlineStr"/>
@@ -6204,61 +6204,61 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>003670.KS</t>
+          <t>010950.KS</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Posco Future M Co., Ltd.</t>
+          <t>S-Oil Corporation</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Electrical Equipment &amp; Parts</t>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>116,600 (+2.82%)</t>
+          <t>54,400 (-2.68%)</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
       <c r="F94" t="n">
-        <v>1.18</v>
+        <v>0.84</v>
       </c>
       <c r="G94" t="n">
-        <v>3.04</v>
+        <v>0.73</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-7.87%</t>
+          <t>-4.57%</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-0.17%</t>
+          <t>-0.14%</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0.01</v>
+        <v>1.49</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>-6.48%</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>hold(+13%)</t>
+          <t>buy(+31%)</t>
         </is>
       </c>
       <c r="P94" t="inlineStr"/>
@@ -6266,61 +6266,61 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03473K.KS</t>
+          <t>034020.KS</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SK Inc.</t>
+          <t>Doosan Enerbility Co., Ltd.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Conglomerates</t>
+          <t>Specialty Industrial Machinery</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>135,000 (-3.23%)</t>
+          <t>40,350 (-4.38%)</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.16</v>
+        <v>0.58</v>
       </c>
       <c r="F95" t="n">
-        <v>0.96</v>
+        <v>1.1</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>231.9</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.83%</t>
+          <t>0.98%</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>1.85%</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>3.88%</t>
-        </is>
-      </c>
+        <v>3.09</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>-1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>none(N/A)</t>
+          <t>strong_buy(+4%)</t>
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
@@ -6328,61 +6328,61 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>010950.KS</t>
+          <t>03473K.KS</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>S-Oil Corporation</t>
+          <t>SK Inc.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+          <t>Conglomerates</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>54,400 (-2.68%)</t>
+          <t>135,000 (-3.23%)</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.87</v>
+        <v>1.16</v>
       </c>
       <c r="F96" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="G96" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-4.57%</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-0.14%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0.64</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>3.88%</t>
+        </is>
+      </c>
       <c r="N96" t="n">
-        <v>-1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>buy(+31%)</t>
+          <t>none(N/A)</t>
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>-2.33</v>
+        <v>-2.8</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>-2.5</v>
+        <v>-2.9</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>-2.5</v>
+        <v>-2.9</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>-2.5</v>
+        <v>-2.9</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>-2.5</v>
+        <v>-2.9</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
